--- a/Excel-XLSX/UN-FNC.xlsx
+++ b/Excel-XLSX/UN-FNC.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Ph0JYf</t>
+    <t>y5KV6T</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-FNC.xlsx
+++ b/Excel-XLSX/UN-FNC.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>y5KV6T</t>
+    <t>0L9obP</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-FNC.xlsx
+++ b/Excel-XLSX/UN-FNC.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>0L9obP</t>
+    <t>humdE4</t>
   </si>
   <si>
     <t>0</t>
